--- a/tool/test-packs/homecare_300_acute_nominated.xlsx
+++ b/tool/test-packs/homecare_300_acute_nominated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e\tool\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D59AE-B59A-4C22-BF3A-F90CDCF8BF3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55719A95-B22E-45CE-92C7-8ADEF39B249C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{7C3F71BD-1F0F-4548-8705-713F65ABAC71}"/>
   </bookViews>
